--- a/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>13.55145158545248</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>17.45152257641391</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12.380007917432</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>101.7915959661369</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.7648869635577</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,125 +451,1097 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.969036800080536</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>25.60720851682375</v>
+      </c>
+      <c r="O2">
+        <v>83.75513700408557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>12.37143885414662</v>
+      </c>
+      <c r="D3">
+        <v>15.52643553360378</v>
+      </c>
+      <c r="E3">
+        <v>11.40959992190279</v>
+      </c>
+      <c r="F3">
+        <v>90.99187832403939</v>
+      </c>
+      <c r="G3">
+        <v>1.841765685173723</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5.748753508097458</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>24.2256181799734</v>
+      </c>
+      <c r="O3">
+        <v>74.80820972003855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>11.74101418101211</v>
+      </c>
+      <c r="D4">
+        <v>14.56837654745582</v>
+      </c>
+      <c r="E4">
+        <v>10.90177638546644</v>
+      </c>
+      <c r="F4">
+        <v>84.98263705667051</v>
+      </c>
+      <c r="G4">
+        <v>1.882552311125411</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>5.647696435473756</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>23.3359507766292</v>
+      </c>
+      <c r="O4">
+        <v>69.82799860781921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>11.49868832174976</v>
+      </c>
+      <c r="D5">
+        <v>14.20083875656366</v>
+      </c>
+      <c r="E5">
+        <v>10.708903433407</v>
+      </c>
+      <c r="F5">
+        <v>82.61620959648516</v>
+      </c>
+      <c r="G5">
+        <v>1.898250585571099</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5.612295217270296</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="O5">
+        <v>67.86609327053198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>11.45916758320731</v>
+      </c>
+      <c r="D6">
+        <v>14.14065524288775</v>
+      </c>
+      <c r="E6">
+        <v>10.67758129128023</v>
+      </c>
+      <c r="F6">
+        <v>82.22690447049584</v>
+      </c>
+      <c r="G6">
+        <v>1.900814192046194</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>5.606713733511106</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>22.90084339962178</v>
+      </c>
+      <c r="O6">
+        <v>67.54328902660113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>11.73769491011818</v>
+      </c>
+      <c r="D7">
+        <v>14.5633586486245</v>
+      </c>
+      <c r="E7">
+        <v>10.89912525501109</v>
+      </c>
+      <c r="F7">
+        <v>84.9504532501177</v>
+      </c>
+      <c r="G7">
+        <v>1.882767153177333</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>5.647198097576553</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="O7">
+        <v>69.80131949774567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D8">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E8">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F8">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G8">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O8">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D9">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E9">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F9">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G9">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O9">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D10">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E10">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F10">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G10">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O10">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D11">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E11">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F11">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G11">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O11">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D12">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E12">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F12">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G12">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O12">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D13">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E13">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F13">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G13">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O13">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D14">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E14">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F14">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G14">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O14">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D15">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E15">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F15">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G15">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O15">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D16">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E16">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F16">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G16">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O16">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D17">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E17">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F17">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G17">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O17">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D18">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E18">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F18">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G18">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O18">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D19">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E19">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F19">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G19">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O19">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D20">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E20">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F20">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G20">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O20">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D21">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E21">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F21">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G21">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O21">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D22">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E22">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F22">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G22">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O22">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D23">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E23">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F23">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G23">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O23">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D24">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E24">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F24">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G24">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O24">
+        <v>80.50937473817574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>13.11698769213336</v>
+      </c>
+      <c r="D25">
+        <v>16.75153983173576</v>
+      </c>
+      <c r="E25">
+        <v>12.02000612828749</v>
+      </c>
+      <c r="F25">
+        <v>97.87340058800939</v>
+      </c>
+      <c r="G25">
+        <v>1.79333426037385</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>5.883524956420538</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O25">
+        <v>80.50937473817574</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6.635945705866962</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10.37001580375066</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.63459774282857</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>57.46853400518822</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.577017204894871</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>43.81791531965015</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>6.361562893144423</v>
+      </c>
+      <c r="D3">
+        <v>9.932799549741137</v>
+      </c>
+      <c r="E3">
+        <v>15.6466040797015</v>
+      </c>
+      <c r="F3">
+        <v>54.74653084328673</v>
+      </c>
+      <c r="G3">
+        <v>3.5906741184942</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>41.8995944709806</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18.40031508502701</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6.191319843711504</v>
+      </c>
+      <c r="D4">
+        <v>9.661184158998438</v>
+      </c>
+      <c r="E4">
+        <v>15.01914749991396</v>
+      </c>
+      <c r="F4">
+        <v>53.04152504944284</v>
+      </c>
+      <c r="G4">
+        <v>3.599386568752653</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>40.70405085590981</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.02485520896362</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6.121604157700625</v>
+      </c>
+      <c r="D5">
+        <v>9.549870614763632</v>
+      </c>
+      <c r="E5">
+        <v>14.75846209112958</v>
+      </c>
+      <c r="F5">
+        <v>52.3392606717722</v>
+      </c>
+      <c r="G5">
+        <v>3.603020547688154</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>40.21314541698314</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.86990355188116</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6.110010653948747</v>
+      </c>
+      <c r="D6">
+        <v>9.531354396464611</v>
+      </c>
+      <c r="E6">
+        <v>14.71488226015634</v>
+      </c>
+      <c r="F6">
+        <v>52.222231898233</v>
+      </c>
+      <c r="G6">
+        <v>3.603629053940111</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>40.13142998565588</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.84406337566597</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>6.190380864410529</v>
+      </c>
+      <c r="D7">
+        <v>9.659685254163524</v>
+      </c>
+      <c r="E7">
+        <v>15.01565165174728</v>
+      </c>
+      <c r="F7">
+        <v>53.03208283556064</v>
+      </c>
+      <c r="G7">
+        <v>3.599435237681862</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>40.69744432510532</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.02277304766463</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6.541765618966225</v>
+      </c>
+      <c r="D8">
+        <v>10.22001468208444</v>
+      </c>
+      <c r="E8">
+        <v>16.29838946084606</v>
+      </c>
+      <c r="F8">
+        <v>56.53754047220295</v>
+      </c>
+      <c r="G8">
+        <v>3.581659054646359</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>43.16056322942785</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.79364780656866</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>7.212750780115249</v>
+      </c>
+      <c r="D9">
+        <v>11.28734451916323</v>
+      </c>
+      <c r="E9">
+        <v>18.79612403537535</v>
+      </c>
+      <c r="F9">
+        <v>63.10728097790393</v>
+      </c>
+      <c r="G9">
+        <v>3.549331611278311</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>47.82263279226807</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>20.2273683202997</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>7.690147339259558</v>
+      </c>
+      <c r="D10">
+        <v>12.04515237431369</v>
+      </c>
+      <c r="E10">
+        <v>20.58375088589164</v>
+      </c>
+      <c r="F10">
+        <v>67.70816428229607</v>
+      </c>
+      <c r="G10">
+        <v>3.527031693501603</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>51.11448217590986</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>21.22223697909767</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>7.903214310912412</v>
+      </c>
+      <c r="D11">
+        <v>12.38303428544297</v>
+      </c>
+      <c r="E11">
+        <v>21.35934839937052</v>
+      </c>
+      <c r="F11">
+        <v>69.74611196780508</v>
+      </c>
+      <c r="G11">
+        <v>3.517180609436499</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>52.57822329169516</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>21.66018057919901</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>7.983260591861955</v>
+      </c>
+      <c r="D12">
+        <v>12.50992435062346</v>
+      </c>
+      <c r="E12">
+        <v>21.6477447492381</v>
+      </c>
+      <c r="F12">
+        <v>70.50955398888318</v>
+      </c>
+      <c r="G12">
+        <v>3.513490584806547</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>53.12734914213143</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>21.82377585681918</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>7.966050197505443</v>
+      </c>
+      <c r="D13">
+        <v>12.48264438204329</v>
+      </c>
+      <c r="E13">
+        <v>21.58586773649498</v>
+      </c>
+      <c r="F13">
+        <v>70.34550647338924</v>
+      </c>
+      <c r="G13">
+        <v>3.514283532090251</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>53.00931879882273</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>21.78864458690801</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>7.909812780346158</v>
+      </c>
+      <c r="D14">
+        <v>12.3934951853987</v>
+      </c>
+      <c r="E14">
+        <v>21.38318067458611</v>
+      </c>
+      <c r="F14">
+        <v>69.80908863387342</v>
+      </c>
+      <c r="G14">
+        <v>3.516876230559659</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>52.62350516863427</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>21.67368539489599</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>7.875281472856624</v>
+      </c>
+      <c r="D15">
+        <v>12.33874897351189</v>
+      </c>
+      <c r="E15">
+        <v>21.25834114382862</v>
+      </c>
+      <c r="F15">
+        <v>69.47942889227608</v>
+      </c>
+      <c r="G15">
+        <v>3.518469534996167</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>52.38650305035662</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21.60297336126124</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>7.676136048894754</v>
+      </c>
+      <c r="D16">
+        <v>12.02292651529938</v>
+      </c>
+      <c r="E16">
+        <v>20.53231568818909</v>
+      </c>
+      <c r="F16">
+        <v>67.57383840747883</v>
+      </c>
+      <c r="G16">
+        <v>3.527681234255712</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>51.01811627569237</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>21.19330956972086</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>7.552878780754985</v>
+      </c>
+      <c r="D17">
+        <v>11.82736793875985</v>
+      </c>
+      <c r="E17">
+        <v>20.07736254967733</v>
+      </c>
+      <c r="F17">
+        <v>66.39043252849194</v>
+      </c>
+      <c r="G17">
+        <v>3.53340617214322</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>50.16977133003248</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>20.93814219015166</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>7.481600425524501</v>
+      </c>
+      <c r="D18">
+        <v>11.71424651807743</v>
+      </c>
+      <c r="E18">
+        <v>19.81213984045193</v>
+      </c>
+      <c r="F18">
+        <v>65.7046060925947</v>
+      </c>
+      <c r="G18">
+        <v>3.536726721687605</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>49.67866404424451</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>20.79000725568141</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>7.457402457658406</v>
+      </c>
+      <c r="D19">
+        <v>11.67583791718789</v>
+      </c>
+      <c r="E19">
+        <v>19.72172798472935</v>
+      </c>
+      <c r="F19">
+        <v>65.47152331887209</v>
+      </c>
+      <c r="G19">
+        <v>3.537855816422994</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>49.51185112705243</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>20.73962067985785</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>7.566039850301674</v>
+      </c>
+      <c r="D20">
+        <v>11.84825244036768</v>
+      </c>
+      <c r="E20">
+        <v>20.12615933154363</v>
+      </c>
+      <c r="F20">
+        <v>66.51694543154416</v>
+      </c>
+      <c r="G20">
+        <v>3.532793886908927</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>50.2604087897983</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>20.96544799483449</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>7.926348704516893</v>
+      </c>
+      <c r="D21">
+        <v>12.41970969913144</v>
+      </c>
+      <c r="E21">
+        <v>21.44285793795522</v>
+      </c>
+      <c r="F21">
+        <v>69.96687489542367</v>
+      </c>
+      <c r="G21">
+        <v>3.516113611491298</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>52.73697017801674</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>21.70751365554064</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>8.158100213464433</v>
+      </c>
+      <c r="D22">
+        <v>12.78699746786458</v>
+      </c>
+      <c r="E22">
+        <v>22.27252196706495</v>
+      </c>
+      <c r="F22">
+        <v>72.17320736267757</v>
+      </c>
+      <c r="G22">
+        <v>3.505446467013826</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>54.32536773618939</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>22.17935961385674</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>8.034764573488381</v>
+      </c>
+      <c r="D23">
+        <v>12.59155589018178</v>
+      </c>
+      <c r="E23">
+        <v>21.83250492350709</v>
+      </c>
+      <c r="F23">
+        <v>71.00017333357567</v>
+      </c>
+      <c r="G23">
+        <v>3.51111889948468</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>53.48045588863651</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>21.92877110911181</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>7.560091023127264</v>
+      </c>
+      <c r="D24">
+        <v>11.83881270743747</v>
+      </c>
+      <c r="E24">
+        <v>20.10410972692023</v>
+      </c>
+      <c r="F24">
+        <v>66.45976595850284</v>
+      </c>
+      <c r="G24">
+        <v>3.533070609956019</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>50.21944210561659</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>20.95310750188673</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>7.033681618515604</v>
+      </c>
+      <c r="D25">
+        <v>11.00278552492459</v>
+      </c>
+      <c r="E25">
+        <v>18.10381695481566</v>
+      </c>
+      <c r="F25">
+        <v>61.36722949087737</v>
+      </c>
+      <c r="G25">
+        <v>3.557815289299711</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>46.58293191443836</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>19.84905939529497</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,31 +430,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11.24852140442996</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.193951379550692</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12.70556104391218</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26.73588939511731</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>38.74888950056022</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.883799783889627</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.07147990279545</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.38168822582404</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.44115156241734</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,125 +463,1235 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.668727899763049</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>25.60720851682247</v>
+      </c>
+      <c r="Q2">
+        <v>21.20970228602394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10.8662495750091</v>
+      </c>
+      <c r="D3">
+        <v>3.13305243386133</v>
+      </c>
+      <c r="E3">
+        <v>12.22639962988718</v>
+      </c>
+      <c r="F3">
+        <v>25.32797384236754</v>
+      </c>
+      <c r="G3">
+        <v>36.49251569631484</v>
+      </c>
+      <c r="H3">
+        <v>2.642467429846983</v>
+      </c>
+      <c r="I3">
+        <v>3.859774037791618</v>
+      </c>
+      <c r="J3">
+        <v>10.98942479933915</v>
+      </c>
+      <c r="K3">
+        <v>21.45244591787266</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>7.439224539768293</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>20.22095615960492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10.61978442797437</v>
+      </c>
+      <c r="D4">
+        <v>3.094054442948869</v>
+      </c>
+      <c r="E4">
+        <v>11.92006285739557</v>
+      </c>
+      <c r="F4">
+        <v>24.42734189127118</v>
+      </c>
+      <c r="G4">
+        <v>35.03792900608318</v>
+      </c>
+      <c r="H4">
+        <v>2.488649495604059</v>
+      </c>
+      <c r="I4">
+        <v>3.725139248009586</v>
+      </c>
+      <c r="J4">
+        <v>10.74296958878099</v>
+      </c>
+      <c r="K4">
+        <v>20.82188451962939</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>7.294354279113137</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>19.59142863059246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10.50753952700092</v>
+      </c>
+      <c r="D5">
+        <v>3.07809265355404</v>
+      </c>
+      <c r="E5">
+        <v>11.78855470930981</v>
+      </c>
+      <c r="F5">
+        <v>24.04232970691584</v>
+      </c>
+      <c r="G5">
+        <v>34.41132067352537</v>
+      </c>
+      <c r="H5">
+        <v>2.423996043082068</v>
+      </c>
+      <c r="I5">
+        <v>3.668913223602181</v>
+      </c>
+      <c r="J5">
+        <v>10.63792497893887</v>
+      </c>
+      <c r="K5">
+        <v>20.54868315468946</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>7.234808995120466</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>19.32172632537375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10.4778373172996</v>
+      </c>
+      <c r="D6">
+        <v>3.075831941198594</v>
+      </c>
+      <c r="E6">
+        <v>11.76200392660963</v>
+      </c>
+      <c r="F6">
+        <v>23.96655315676902</v>
+      </c>
+      <c r="G6">
+        <v>34.28566068520571</v>
+      </c>
+      <c r="H6">
+        <v>2.412523577927994</v>
+      </c>
+      <c r="I6">
+        <v>3.659443463470267</v>
+      </c>
+      <c r="J6">
+        <v>10.61633457724825</v>
+      </c>
+      <c r="K6">
+        <v>20.48999450877185</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>7.225410288617528</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="Q6">
+        <v>19.26706870716391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>10.58884045113367</v>
+      </c>
+      <c r="D7">
+        <v>3.09497952788308</v>
+      </c>
+      <c r="E7">
+        <v>11.90607189328334</v>
+      </c>
+      <c r="F7">
+        <v>24.39179762261631</v>
+      </c>
+      <c r="G7">
+        <v>34.97444216328602</v>
+      </c>
+      <c r="H7">
+        <v>2.48603176673962</v>
+      </c>
+      <c r="I7">
+        <v>3.723972077462185</v>
+      </c>
+      <c r="J7">
+        <v>10.73055173055162</v>
+      </c>
+      <c r="K7">
+        <v>20.78325169754902</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>7.29503750142856</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>19.56210980467607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>11.08169423362908</v>
+      </c>
+      <c r="D8">
+        <v>3.174830114907349</v>
+      </c>
+      <c r="E8">
+        <v>12.52746150502872</v>
+      </c>
+      <c r="F8">
+        <v>26.22035911228242</v>
+      </c>
+      <c r="G8">
+        <v>37.91745056346102</v>
+      </c>
+      <c r="H8">
+        <v>2.799520101191094</v>
+      </c>
+      <c r="I8">
+        <v>3.998594360147006</v>
+      </c>
+      <c r="J8">
+        <v>11.2336682596678</v>
+      </c>
+      <c r="K8">
+        <v>22.06132092209214</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>7.592369823180658</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="Q8">
+        <v>20.84139725243991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>12.00267694728421</v>
+      </c>
+      <c r="D9">
+        <v>3.316659481161471</v>
+      </c>
+      <c r="E9">
+        <v>13.66707675182329</v>
+      </c>
+      <c r="F9">
+        <v>29.55653998534235</v>
+      </c>
+      <c r="G9">
+        <v>43.21684979828011</v>
+      </c>
+      <c r="H9">
+        <v>3.373502727468735</v>
+      </c>
+      <c r="I9">
+        <v>4.502641807385512</v>
+      </c>
+      <c r="J9">
+        <v>12.18952295184728</v>
+      </c>
+      <c r="K9">
+        <v>24.42894850098871</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>8.139894937650279</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>23.20414606212522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>12.51488738604041</v>
+      </c>
+      <c r="D10">
+        <v>3.420640665717354</v>
+      </c>
+      <c r="E10">
+        <v>14.24235013791329</v>
+      </c>
+      <c r="F10">
+        <v>31.68117102898495</v>
+      </c>
+      <c r="G10">
+        <v>46.5238486109577</v>
+      </c>
+      <c r="H10">
+        <v>3.751835092145038</v>
+      </c>
+      <c r="I10">
+        <v>4.842946811960677</v>
+      </c>
+      <c r="J10">
+        <v>12.80506367254394</v>
+      </c>
+      <c r="K10">
+        <v>25.89443086004013</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>8.40513375239061</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>24.70045731823415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>11.93342797333562</v>
+      </c>
+      <c r="D11">
+        <v>3.537527101812323</v>
+      </c>
+      <c r="E11">
+        <v>12.87611500384531</v>
+      </c>
+      <c r="F11">
+        <v>31.5448395702002</v>
+      </c>
+      <c r="G11">
+        <v>46.074772143708</v>
+      </c>
+      <c r="H11">
+        <v>4.282570548306337</v>
+      </c>
+      <c r="I11">
+        <v>4.917004096553145</v>
+      </c>
+      <c r="J11">
+        <v>12.66301873135495</v>
+      </c>
+      <c r="K11">
+        <v>25.38512664356595</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>7.574085770430641</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>24.43530457409985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>11.39793216379318</v>
+      </c>
+      <c r="D12">
+        <v>3.625012207355207</v>
+      </c>
+      <c r="E12">
+        <v>11.70461346447546</v>
+      </c>
+      <c r="F12">
+        <v>31.01776184761522</v>
+      </c>
+      <c r="G12">
+        <v>45.06514207614266</v>
+      </c>
+      <c r="H12">
+        <v>5.199051735662696</v>
+      </c>
+      <c r="I12">
+        <v>4.914573293305762</v>
+      </c>
+      <c r="J12">
+        <v>12.42337958013336</v>
+      </c>
+      <c r="K12">
+        <v>24.68345284453342</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>6.892138104918641</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="Q12">
+        <v>23.92330945167888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>10.8214349610983</v>
+      </c>
+      <c r="D13">
+        <v>3.696074922632815</v>
+      </c>
+      <c r="E13">
+        <v>10.6078741638628</v>
+      </c>
+      <c r="F13">
+        <v>30.10355506075283</v>
+      </c>
+      <c r="G13">
+        <v>43.46335855995986</v>
+      </c>
+      <c r="H13">
+        <v>6.279876479304115</v>
+      </c>
+      <c r="I13">
+        <v>4.852812939589128</v>
+      </c>
+      <c r="J13">
+        <v>12.07405581831341</v>
+      </c>
+      <c r="K13">
+        <v>23.72895032276144</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>6.303946141818148</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>23.14328254356122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>10.39712186363682</v>
+      </c>
+      <c r="D14">
+        <v>3.740054003596034</v>
+      </c>
+      <c r="E14">
+        <v>9.907501562287329</v>
+      </c>
+      <c r="F14">
+        <v>29.26891816765998</v>
+      </c>
+      <c r="G14">
+        <v>42.03828192792025</v>
+      </c>
+      <c r="H14">
+        <v>7.101608575928851</v>
+      </c>
+      <c r="I14">
+        <v>4.783307060320426</v>
+      </c>
+      <c r="J14">
+        <v>11.77390254580531</v>
+      </c>
+      <c r="K14">
+        <v>22.92732215887367</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>5.96621628608177</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="Q14">
+        <v>22.4602428557427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>10.27448411636354</v>
+      </c>
+      <c r="D15">
+        <v>3.7466803887313</v>
+      </c>
+      <c r="E15">
+        <v>9.739863952235506</v>
+      </c>
+      <c r="F15">
+        <v>28.97145882896287</v>
+      </c>
+      <c r="G15">
+        <v>41.54340459643117</v>
+      </c>
+      <c r="H15">
+        <v>7.288745493237283</v>
+      </c>
+      <c r="I15">
+        <v>4.753115178756985</v>
+      </c>
+      <c r="J15">
+        <v>11.67385075596468</v>
+      </c>
+      <c r="K15">
+        <v>22.66607051819729</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>5.89412883137503</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>22.22745064752764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>10.1418200622274</v>
+      </c>
+      <c r="D16">
+        <v>3.689254399496918</v>
+      </c>
+      <c r="E16">
+        <v>9.671205167947006</v>
+      </c>
+      <c r="F16">
+        <v>28.19407502196356</v>
+      </c>
+      <c r="G16">
+        <v>40.34858762301527</v>
+      </c>
+      <c r="H16">
+        <v>7.005187665837583</v>
+      </c>
+      <c r="I16">
+        <v>4.621287417026197</v>
+      </c>
+      <c r="J16">
+        <v>11.46349671063801</v>
+      </c>
+      <c r="K16">
+        <v>22.17433049322842</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>5.884216371984161</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>21.69893285505819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>10.26377753016445</v>
+      </c>
+      <c r="D17">
+        <v>3.62029682636199</v>
+      </c>
+      <c r="E17">
+        <v>9.975658548521684</v>
+      </c>
+      <c r="F17">
+        <v>28.05324313233872</v>
+      </c>
+      <c r="G17">
+        <v>40.21243105714436</v>
+      </c>
+      <c r="H17">
+        <v>6.300795226495845</v>
+      </c>
+      <c r="I17">
+        <v>4.556603214894801</v>
+      </c>
+      <c r="J17">
+        <v>11.46545907330858</v>
+      </c>
+      <c r="K17">
+        <v>22.23487379683334</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>6.042085074440269</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="Q17">
+        <v>21.66672129151392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>10.65765396321068</v>
+      </c>
+      <c r="D18">
+        <v>3.536979373529082</v>
+      </c>
+      <c r="E18">
+        <v>10.74001644579293</v>
+      </c>
+      <c r="F18">
+        <v>28.47150418040257</v>
+      </c>
+      <c r="G18">
+        <v>41.02252592902387</v>
+      </c>
+      <c r="H18">
+        <v>5.227575569708078</v>
+      </c>
+      <c r="I18">
+        <v>4.545075132771865</v>
+      </c>
+      <c r="J18">
+        <v>11.65784698929286</v>
+      </c>
+      <c r="K18">
+        <v>22.80442529256324</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>6.439957798859631</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>22.07851316474362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>11.22597714100311</v>
+      </c>
+      <c r="D19">
+        <v>3.460588148562428</v>
+      </c>
+      <c r="E19">
+        <v>11.91004887813829</v>
+      </c>
+      <c r="F19">
+        <v>29.25022593316576</v>
+      </c>
+      <c r="G19">
+        <v>42.43059445907282</v>
+      </c>
+      <c r="H19">
+        <v>4.158638550234241</v>
+      </c>
+      <c r="I19">
+        <v>4.583297368697107</v>
+      </c>
+      <c r="J19">
+        <v>11.96690614697606</v>
+      </c>
+      <c r="K19">
+        <v>23.67518986807273</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>7.093536255892273</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="Q19">
+        <v>22.7665291047869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>12.30054945289921</v>
+      </c>
+      <c r="D20">
+        <v>3.39803978679807</v>
+      </c>
+      <c r="E20">
+        <v>14.05355910085601</v>
+      </c>
+      <c r="F20">
+        <v>31.05381664347506</v>
+      </c>
+      <c r="G20">
+        <v>45.53193902628522</v>
+      </c>
+      <c r="H20">
+        <v>3.64756009373285</v>
+      </c>
+      <c r="I20">
+        <v>4.754637475003663</v>
+      </c>
+      <c r="J20">
+        <v>12.61402055114151</v>
+      </c>
+      <c r="K20">
+        <v>25.42111173825928</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>8.335535040258176</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="Q20">
+        <v>24.2447692992133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12.83487742334505</v>
+      </c>
+      <c r="D21">
+        <v>3.464137993677603</v>
+      </c>
+      <c r="E21">
+        <v>14.78179866341077</v>
+      </c>
+      <c r="F21">
+        <v>32.82545419677326</v>
+      </c>
+      <c r="G21">
+        <v>48.32166581062322</v>
+      </c>
+      <c r="H21">
+        <v>3.959462237940109</v>
+      </c>
+      <c r="I21">
+        <v>5.024248827600097</v>
+      </c>
+      <c r="J21">
+        <v>13.15270297761514</v>
+      </c>
+      <c r="K21">
+        <v>26.72412292980609</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>8.71078559406866</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>25.52783566713276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>13.15726981531428</v>
+      </c>
+      <c r="D22">
+        <v>3.507894093966184</v>
+      </c>
+      <c r="E22">
+        <v>15.15890020411056</v>
+      </c>
+      <c r="F22">
+        <v>33.91363167776785</v>
+      </c>
+      <c r="G22">
+        <v>50.02178841967459</v>
+      </c>
+      <c r="H22">
+        <v>4.1515817873957</v>
+      </c>
+      <c r="I22">
+        <v>5.192346011402122</v>
+      </c>
+      <c r="J22">
+        <v>13.48492068874799</v>
+      </c>
+      <c r="K22">
+        <v>27.51884728107991</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>8.890336984964362</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>26.31387232908524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>13.01529706160542</v>
+      </c>
+      <c r="D23">
+        <v>3.4832060341922</v>
+      </c>
+      <c r="E23">
+        <v>14.97055273994324</v>
+      </c>
+      <c r="F23">
+        <v>33.36377163163137</v>
+      </c>
+      <c r="G23">
+        <v>49.16898920363079</v>
+      </c>
+      <c r="H23">
+        <v>4.051184603737663</v>
+      </c>
+      <c r="I23">
+        <v>5.102793144556233</v>
+      </c>
+      <c r="J23">
+        <v>13.31914971272037</v>
+      </c>
+      <c r="K23">
+        <v>27.12995664386126</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>8.793326513633541</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>25.92051045826375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>12.41037691008539</v>
+      </c>
+      <c r="D24">
+        <v>3.389264649975918</v>
+      </c>
+      <c r="E24">
+        <v>14.21458880699718</v>
+      </c>
+      <c r="F24">
+        <v>31.16437828527396</v>
+      </c>
+      <c r="G24">
+        <v>45.73427140976403</v>
+      </c>
+      <c r="H24">
+        <v>3.660016216303418</v>
+      </c>
+      <c r="I24">
+        <v>4.757012695645354</v>
+      </c>
+      <c r="J24">
+        <v>12.6592616505287</v>
+      </c>
+      <c r="K24">
+        <v>25.55491869254979</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>8.419556487898069</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="Q24">
+        <v>24.34438004715055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>11.71558265857463</v>
+      </c>
+      <c r="D25">
+        <v>3.281810258083469</v>
+      </c>
+      <c r="E25">
+        <v>13.3500020236864</v>
+      </c>
+      <c r="F25">
+        <v>28.64007332920727</v>
+      </c>
+      <c r="G25">
+        <v>41.75992509299186</v>
+      </c>
+      <c r="H25">
+        <v>3.219867225387378</v>
+      </c>
+      <c r="I25">
+        <v>4.369544533349201</v>
+      </c>
+      <c r="J25">
+        <v>11.91877612904002</v>
+      </c>
+      <c r="K25">
+        <v>23.75486444306102</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>7.998072103793591</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
+        <v>22.54561121036106</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.24852140442996</v>
+        <v>9.63432051452191</v>
       </c>
       <c r="D2">
-        <v>3.193951379550692</v>
+        <v>3.319752877861611</v>
       </c>
       <c r="E2">
-        <v>12.70556104391218</v>
+        <v>11.98983629674357</v>
       </c>
       <c r="F2">
-        <v>26.73588939511731</v>
+        <v>25.17536432169041</v>
       </c>
       <c r="G2">
-        <v>38.74888950056022</v>
+        <v>35.49782565426231</v>
       </c>
       <c r="H2">
-        <v>2.883799783889627</v>
+        <v>2.762973681404652</v>
       </c>
       <c r="I2">
-        <v>4.07147990279545</v>
+        <v>3.936268045251597</v>
       </c>
       <c r="J2">
-        <v>11.38168822582404</v>
+        <v>11.41074630410967</v>
       </c>
       <c r="K2">
-        <v>22.44115156241734</v>
+        <v>20.61102329842027</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.5741976110524</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.54847405234895</v>
       </c>
       <c r="N2">
-        <v>7.668727899763049</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682247</v>
+        <v>7.751290960616361</v>
       </c>
       <c r="Q2">
-        <v>21.20970228602394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>25.60720851682176</v>
+      </c>
+      <c r="S2">
+        <v>19.89795323192782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.8662495750091</v>
+        <v>9.398281009078907</v>
       </c>
       <c r="D3">
-        <v>3.13305243386133</v>
+        <v>3.235145881509354</v>
       </c>
       <c r="E3">
-        <v>12.22639962988718</v>
+        <v>11.58867538915823</v>
       </c>
       <c r="F3">
-        <v>25.32797384236754</v>
+        <v>23.93473106663359</v>
       </c>
       <c r="G3">
-        <v>36.49251569631484</v>
+        <v>33.49914783851208</v>
       </c>
       <c r="H3">
-        <v>2.642467429846983</v>
+        <v>2.547835404106982</v>
       </c>
       <c r="I3">
-        <v>3.859774037791618</v>
+        <v>3.755541272559943</v>
       </c>
       <c r="J3">
-        <v>10.98942479933915</v>
+        <v>11.07706484625248</v>
       </c>
       <c r="K3">
-        <v>21.45244591787266</v>
+        <v>19.81817439609536</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.2533132575325</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.6171018712246</v>
       </c>
       <c r="N3">
-        <v>7.439224539768293</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>7.520537905943887</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>24.22561817997339</v>
       </c>
-      <c r="Q3">
-        <v>20.22095615960492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>19.05424785596498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.61978442797437</v>
+        <v>9.244971795333235</v>
       </c>
       <c r="D4">
-        <v>3.094054442948869</v>
+        <v>3.181423302845723</v>
       </c>
       <c r="E4">
-        <v>11.92006285739557</v>
+        <v>11.33207564916692</v>
       </c>
       <c r="F4">
-        <v>24.42734189127118</v>
+        <v>23.14124191655242</v>
       </c>
       <c r="G4">
-        <v>35.03792900608318</v>
+        <v>32.21108306111714</v>
       </c>
       <c r="H4">
-        <v>2.488649495604059</v>
+        <v>2.410529212454336</v>
       </c>
       <c r="I4">
-        <v>3.725139248009586</v>
+        <v>3.640568368670956</v>
       </c>
       <c r="J4">
-        <v>10.74296958878099</v>
+        <v>10.86614421385895</v>
       </c>
       <c r="K4">
-        <v>20.82188451962939</v>
+        <v>19.31235409416143</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.04297876901083</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.03048903139299</v>
       </c>
       <c r="N4">
-        <v>7.294354279113137</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>7.375165034421144</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>23.33595077662917</v>
       </c>
-      <c r="Q4">
-        <v>19.59142863059246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>18.51718774407328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.50753952700092</v>
+        <v>9.173471982983665</v>
       </c>
       <c r="D5">
-        <v>3.07809265355404</v>
+        <v>3.159648338634756</v>
       </c>
       <c r="E5">
-        <v>11.78855470930981</v>
+        <v>11.22149988778204</v>
       </c>
       <c r="F5">
-        <v>24.04232970691584</v>
+        <v>22.80126294522757</v>
       </c>
       <c r="G5">
-        <v>34.41132067352537</v>
+        <v>31.6547171095815</v>
       </c>
       <c r="H5">
-        <v>2.423996043082068</v>
+        <v>2.352764227292739</v>
       </c>
       <c r="I5">
-        <v>3.668913223602181</v>
+        <v>3.592799082284098</v>
       </c>
       <c r="J5">
-        <v>10.63792497893887</v>
+        <v>10.77565103214996</v>
       </c>
       <c r="K5">
-        <v>20.54868315468946</v>
+        <v>19.09156827041347</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.94626044801248</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.78065671577775</v>
       </c>
       <c r="N5">
-        <v>7.234808995120466</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>7.315517062079954</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>19.32172632537375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>18.28628098554774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.4778373172996</v>
+        <v>9.153033187395403</v>
       </c>
       <c r="D6">
-        <v>3.075831941198594</v>
+        <v>3.156695422613562</v>
       </c>
       <c r="E6">
-        <v>11.76200392660963</v>
+        <v>11.1987201566303</v>
       </c>
       <c r="F6">
-        <v>23.96655315676902</v>
+        <v>22.7333915644518</v>
       </c>
       <c r="G6">
-        <v>34.28566068520571</v>
+        <v>31.541261636752</v>
       </c>
       <c r="H6">
-        <v>2.412523577927994</v>
+        <v>2.342500743087909</v>
       </c>
       <c r="I6">
-        <v>3.659443463470267</v>
+        <v>3.585120035228293</v>
       </c>
       <c r="J6">
-        <v>10.61633457724825</v>
+        <v>10.75672978571863</v>
       </c>
       <c r="K6">
-        <v>20.48999450877185</v>
+        <v>19.04229000216673</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.92064612495092</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.7294642662402</v>
       </c>
       <c r="N6">
-        <v>7.225410288617528</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>7.306139229370753</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>19.26706870716391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>18.23848650248303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.58884045113367</v>
+        <v>9.223215206839413</v>
       </c>
       <c r="D7">
-        <v>3.09497952788308</v>
+        <v>3.184094208002378</v>
       </c>
       <c r="E7">
-        <v>11.90607189328334</v>
+        <v>11.31970729897176</v>
       </c>
       <c r="F7">
-        <v>24.39179762261631</v>
+        <v>23.08954755879375</v>
       </c>
       <c r="G7">
-        <v>34.97444216328602</v>
+        <v>32.25656401491214</v>
       </c>
       <c r="H7">
-        <v>2.48603176673962</v>
+        <v>2.407586408607011</v>
       </c>
       <c r="I7">
-        <v>3.723972077462185</v>
+        <v>3.639867230138737</v>
       </c>
       <c r="J7">
-        <v>10.73055173055162</v>
+        <v>10.79373581031939</v>
       </c>
       <c r="K7">
-        <v>20.78325169754902</v>
+        <v>19.26438858942473</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.00782591164649</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.99214680004834</v>
       </c>
       <c r="N7">
-        <v>7.29503750142856</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>7.375355023619931</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>19.56210980467607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>18.47446541164969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.08169423362908</v>
+        <v>9.532295954068566</v>
       </c>
       <c r="D8">
-        <v>3.174830114907349</v>
+        <v>3.297094785802622</v>
       </c>
       <c r="E8">
-        <v>12.52746150502872</v>
+        <v>11.84123929335681</v>
       </c>
       <c r="F8">
-        <v>26.22035911228242</v>
+        <v>24.66243605320788</v>
       </c>
       <c r="G8">
-        <v>37.91745056346102</v>
+        <v>35.08546366905459</v>
       </c>
       <c r="H8">
-        <v>2.799520101191094</v>
+        <v>2.686068015402427</v>
       </c>
       <c r="I8">
-        <v>3.998594360147006</v>
+        <v>3.873226141596651</v>
       </c>
       <c r="J8">
-        <v>11.2336682596678</v>
+        <v>11.0891513552815</v>
       </c>
       <c r="K8">
-        <v>22.06132092209214</v>
+        <v>20.26271386113458</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.40790290309805</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.16879709425099</v>
       </c>
       <c r="N8">
-        <v>7.592369823180658</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>7.672755000484205</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>20.84139725243991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>19.53315394322543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.00267694728421</v>
+        <v>10.10284347086687</v>
       </c>
       <c r="D9">
-        <v>3.316659481161471</v>
+        <v>3.497063907653186</v>
       </c>
       <c r="E9">
-        <v>13.66707675182329</v>
+        <v>12.79678214835541</v>
       </c>
       <c r="F9">
-        <v>29.55653998534235</v>
+        <v>27.5974452593901</v>
       </c>
       <c r="G9">
-        <v>43.21684979828011</v>
+        <v>39.83196568233393</v>
       </c>
       <c r="H9">
-        <v>3.373502727468735</v>
+        <v>3.196383620967966</v>
       </c>
       <c r="I9">
-        <v>4.502641807385512</v>
+        <v>4.301914699752937</v>
       </c>
       <c r="J9">
-        <v>12.18952295184728</v>
+        <v>11.85794639858639</v>
       </c>
       <c r="K9">
-        <v>24.42894850098871</v>
+        <v>22.1604610022802</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.16033160850438</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.41210914039783</v>
       </c>
       <c r="N9">
-        <v>8.139894937650279</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>8.224117590336617</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>23.20414606212522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>21.54553370086372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.51488738604041</v>
+        <v>10.42206456876069</v>
       </c>
       <c r="D10">
-        <v>3.420640665717354</v>
+        <v>3.652353933271811</v>
       </c>
       <c r="E10">
-        <v>14.24235013791329</v>
+        <v>13.26245525287782</v>
       </c>
       <c r="F10">
-        <v>31.68117102898495</v>
+        <v>29.38176611019998</v>
       </c>
       <c r="G10">
-        <v>46.5238486109577</v>
+        <v>43.27765131314904</v>
       </c>
       <c r="H10">
-        <v>3.751835092145038</v>
+        <v>3.528859193166682</v>
       </c>
       <c r="I10">
-        <v>4.842946811960677</v>
+        <v>4.588853495768801</v>
       </c>
       <c r="J10">
-        <v>12.80506367254394</v>
+        <v>12.03725000856208</v>
       </c>
       <c r="K10">
-        <v>25.89443086004013</v>
+        <v>23.26734877218261</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.51856214630959</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.80539051141859</v>
       </c>
       <c r="N10">
-        <v>8.40513375239061</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>8.486747728112103</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>24.70045731823415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>22.74455025488658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.93342797333562</v>
+        <v>10.05673156241361</v>
       </c>
       <c r="D11">
-        <v>3.537527101812323</v>
+        <v>3.830808646962027</v>
       </c>
       <c r="E11">
-        <v>12.87611500384531</v>
+        <v>11.964690139241</v>
       </c>
       <c r="F11">
-        <v>31.5448395702002</v>
+        <v>29.07056260400595</v>
       </c>
       <c r="G11">
-        <v>46.074772143708</v>
+        <v>43.90397093139282</v>
       </c>
       <c r="H11">
-        <v>4.282570548306337</v>
+        <v>4.078698939542766</v>
       </c>
       <c r="I11">
-        <v>4.917004096553145</v>
+        <v>4.650176243236064</v>
       </c>
       <c r="J11">
-        <v>12.66301873135495</v>
+        <v>11.2475707903879</v>
       </c>
       <c r="K11">
-        <v>25.38512664356595</v>
+        <v>22.65354861985643</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.88435183605207</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.55069427821704</v>
       </c>
       <c r="N11">
-        <v>7.574085770430641</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>7.617547837871534</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>24.43530457409985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>22.33074685296685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.39793216379318</v>
+        <v>9.738964780106716</v>
       </c>
       <c r="D12">
-        <v>3.625012207355207</v>
+        <v>3.952690105353678</v>
       </c>
       <c r="E12">
-        <v>11.70461346447546</v>
+        <v>10.88619481759048</v>
       </c>
       <c r="F12">
-        <v>31.01776184761522</v>
+        <v>28.51542522361383</v>
       </c>
       <c r="G12">
-        <v>45.06514207614266</v>
+        <v>43.48418573447647</v>
       </c>
       <c r="H12">
-        <v>5.199051735662696</v>
+        <v>5.034715144492236</v>
       </c>
       <c r="I12">
-        <v>4.914573293305762</v>
+        <v>4.647471157740608</v>
       </c>
       <c r="J12">
-        <v>12.42337958013336</v>
+        <v>10.74573888336897</v>
       </c>
       <c r="K12">
-        <v>24.68345284453342</v>
+        <v>21.97230143393886</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>17.3280049456802</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.09831843374223</v>
       </c>
       <c r="N12">
-        <v>6.892138104918641</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>6.899165904055921</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>23.92330945167888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>21.79768738161897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.8214349610983</v>
+        <v>9.404905881755633</v>
       </c>
       <c r="D13">
-        <v>3.696074922632815</v>
+        <v>4.034545307094621</v>
       </c>
       <c r="E13">
-        <v>10.6078741638628</v>
+        <v>9.914479762427106</v>
       </c>
       <c r="F13">
-        <v>30.10355506075283</v>
+        <v>27.72151171500005</v>
       </c>
       <c r="G13">
-        <v>43.46335855995986</v>
+        <v>41.93882511520587</v>
       </c>
       <c r="H13">
-        <v>6.279876479304115</v>
+        <v>6.15357328829482</v>
       </c>
       <c r="I13">
-        <v>4.852812939589128</v>
+        <v>4.597370776908566</v>
       </c>
       <c r="J13">
-        <v>12.07405581831341</v>
+        <v>10.53342439709853</v>
       </c>
       <c r="K13">
-        <v>23.72895032276144</v>
+        <v>21.16364093608063</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>16.77025172135956</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.43995135638483</v>
       </c>
       <c r="N13">
-        <v>6.303946141818148</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>6.274381066435085</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>23.14328254356122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>21.12611962761242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.39712186363682</v>
+        <v>9.167619985744382</v>
       </c>
       <c r="D14">
-        <v>3.740054003596034</v>
+        <v>4.074352110019312</v>
       </c>
       <c r="E14">
-        <v>9.907501562287329</v>
+        <v>9.323110728784679</v>
       </c>
       <c r="F14">
-        <v>29.26891816765998</v>
+        <v>27.03847361983073</v>
       </c>
       <c r="G14">
-        <v>42.03828192792025</v>
+        <v>40.32037481560163</v>
       </c>
       <c r="H14">
-        <v>7.101608575928851</v>
+        <v>6.998259510786184</v>
       </c>
       <c r="I14">
-        <v>4.783307060320426</v>
+        <v>4.541582485498284</v>
       </c>
       <c r="J14">
-        <v>11.77390254580531</v>
+        <v>10.50161814246661</v>
       </c>
       <c r="K14">
-        <v>22.92732215887367</v>
+        <v>20.52187814821608</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>16.3660461607473</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.87054215647449</v>
       </c>
       <c r="N14">
-        <v>5.96621628608177</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>5.910796333221444</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>22.4602428557427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>20.57777986177942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.27448411636354</v>
+        <v>9.09855152125586</v>
       </c>
       <c r="D15">
-        <v>3.7466803887313</v>
+        <v>4.075349649842611</v>
       </c>
       <c r="E15">
-        <v>9.739863952235506</v>
+        <v>9.187561009707256</v>
       </c>
       <c r="F15">
-        <v>28.97145882896287</v>
+        <v>26.80766568125809</v>
       </c>
       <c r="G15">
-        <v>41.54340459643117</v>
+        <v>39.67914181366668</v>
       </c>
       <c r="H15">
-        <v>7.288745493237283</v>
+        <v>7.191436717017975</v>
       </c>
       <c r="I15">
-        <v>4.753115178756985</v>
+        <v>4.517768424711437</v>
       </c>
       <c r="J15">
-        <v>11.67385075596468</v>
+        <v>10.541014850988</v>
       </c>
       <c r="K15">
-        <v>22.66607051819729</v>
+        <v>20.3251878282761</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>16.25699963593493</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.67714636877933</v>
       </c>
       <c r="N15">
-        <v>5.89412883137503</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>31.28998244549472</v>
+        <v>5.83349543273855</v>
       </c>
       <c r="Q15">
-        <v>22.22745064752764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>31.28998244549382</v>
+      </c>
+      <c r="S15">
+        <v>20.40367022491577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.1418200622274</v>
+        <v>8.999058036338596</v>
       </c>
       <c r="D16">
-        <v>3.689254399496918</v>
+        <v>3.978234710002076</v>
       </c>
       <c r="E16">
-        <v>9.671205167947006</v>
+        <v>9.14426357125382</v>
       </c>
       <c r="F16">
-        <v>28.19407502196356</v>
+        <v>26.28282098254674</v>
       </c>
       <c r="G16">
-        <v>40.34858762301527</v>
+        <v>37.6708109362227</v>
       </c>
       <c r="H16">
-        <v>7.005187665837583</v>
+        <v>6.91812438355655</v>
       </c>
       <c r="I16">
-        <v>4.621287417026197</v>
+        <v>4.410813463504244</v>
       </c>
       <c r="J16">
-        <v>11.46349671063801</v>
+        <v>10.94740775966361</v>
       </c>
       <c r="K16">
-        <v>22.17433049322842</v>
+        <v>20.05030714293435</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>16.2322255048751</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.24419042017104</v>
       </c>
       <c r="N16">
-        <v>5.884216371984161</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>30.42464283346099</v>
+        <v>5.836248897026138</v>
       </c>
       <c r="Q16">
-        <v>21.69893285505819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>30.424642833461</v>
+      </c>
+      <c r="S16">
+        <v>20.09416052730535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.26377753016445</v>
+        <v>9.044646792552156</v>
       </c>
       <c r="D17">
-        <v>3.62029682636199</v>
+        <v>3.885183751856585</v>
       </c>
       <c r="E17">
-        <v>9.975658548521684</v>
+        <v>9.405743280475761</v>
       </c>
       <c r="F17">
-        <v>28.05324313233872</v>
+        <v>26.23184754352669</v>
       </c>
       <c r="G17">
-        <v>40.21243105714436</v>
+        <v>37.14150128307597</v>
       </c>
       <c r="H17">
-        <v>6.300795226495845</v>
+        <v>6.210858188624811</v>
       </c>
       <c r="I17">
-        <v>4.556603214894801</v>
+        <v>4.35745225006964</v>
       </c>
       <c r="J17">
-        <v>11.46545907330858</v>
+        <v>11.20433080325594</v>
       </c>
       <c r="K17">
-        <v>22.23487379683334</v>
+        <v>20.17560391774037</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>16.42625660073206</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.21091685562978</v>
       </c>
       <c r="N17">
-        <v>6.042085074440269</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>6.017218576947904</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>21.66672129151392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>20.1381896323354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.65765396321068</v>
+        <v>9.254210347124161</v>
       </c>
       <c r="D18">
-        <v>3.536979373529082</v>
+        <v>3.782988845216166</v>
       </c>
       <c r="E18">
-        <v>10.74001644579293</v>
+        <v>10.07358417982005</v>
       </c>
       <c r="F18">
-        <v>28.47150418040257</v>
+        <v>26.63855225116163</v>
       </c>
       <c r="G18">
-        <v>41.02252592902387</v>
+        <v>37.69950844076384</v>
       </c>
       <c r="H18">
-        <v>5.227575569708078</v>
+        <v>5.11925550552568</v>
       </c>
       <c r="I18">
-        <v>4.545075132771865</v>
+        <v>4.346150503663222</v>
       </c>
       <c r="J18">
-        <v>11.65784698929286</v>
+        <v>11.47785684597683</v>
       </c>
       <c r="K18">
-        <v>22.80442529256324</v>
+        <v>20.70546232112085</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.86564802252872</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.55488476950897</v>
       </c>
       <c r="N18">
-        <v>6.439957798859631</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>29.5640428768043</v>
+        <v>6.448163731604022</v>
       </c>
       <c r="Q18">
-        <v>22.07851316474362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>29.56404287680425</v>
+      </c>
+      <c r="S18">
+        <v>20.53693179230444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.22597714100311</v>
+        <v>9.58762275099426</v>
       </c>
       <c r="D19">
-        <v>3.460588148562428</v>
+        <v>3.690268984624498</v>
       </c>
       <c r="E19">
-        <v>11.91004887813829</v>
+        <v>11.12902112659005</v>
       </c>
       <c r="F19">
-        <v>29.25022593316576</v>
+        <v>27.34041098753453</v>
       </c>
       <c r="G19">
-        <v>42.43059445907282</v>
+        <v>38.91479508281249</v>
       </c>
       <c r="H19">
-        <v>4.158638550234241</v>
+        <v>4.013059262766944</v>
       </c>
       <c r="I19">
-        <v>4.583297368697107</v>
+        <v>4.377749122133786</v>
       </c>
       <c r="J19">
-        <v>11.96690614697606</v>
+        <v>11.77158348260722</v>
       </c>
       <c r="K19">
-        <v>23.67518986807273</v>
+        <v>21.46875708762712</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.43445325913077</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.13347997299332</v>
       </c>
       <c r="N19">
-        <v>7.093536255892273</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>7.13708804284152</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>22.7665291047869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>21.15478615813977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.30054945289921</v>
+        <v>10.27200077456291</v>
       </c>
       <c r="D20">
-        <v>3.39803978679807</v>
+        <v>3.614895162825169</v>
       </c>
       <c r="E20">
-        <v>14.05355910085601</v>
+        <v>13.10209277769288</v>
       </c>
       <c r="F20">
-        <v>31.05381664347506</v>
+        <v>28.89609390364707</v>
       </c>
       <c r="G20">
-        <v>45.53193902628522</v>
+        <v>41.95435330714324</v>
       </c>
       <c r="H20">
-        <v>3.64756009373285</v>
+        <v>3.438706472846973</v>
       </c>
       <c r="I20">
-        <v>4.754637475003663</v>
+        <v>4.51953135273977</v>
       </c>
       <c r="J20">
-        <v>12.61402055114151</v>
+        <v>12.15248437111086</v>
       </c>
       <c r="K20">
-        <v>25.42111173825928</v>
+        <v>22.92646935088583</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.38684452899488</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.40251934537521</v>
       </c>
       <c r="N20">
-        <v>8.335535040258176</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>8.419646963666445</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>24.2447692992133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>22.41262448017286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.83487742334505</v>
+        <v>10.64684469235741</v>
       </c>
       <c r="D21">
-        <v>3.464137993677603</v>
+        <v>3.735974144420998</v>
       </c>
       <c r="E21">
-        <v>14.78179866341077</v>
+        <v>13.74306760007678</v>
       </c>
       <c r="F21">
-        <v>32.82545419677326</v>
+        <v>30.13249665399879</v>
       </c>
       <c r="G21">
-        <v>48.32166581062322</v>
+        <v>46.3460635410451</v>
       </c>
       <c r="H21">
-        <v>3.959462237940109</v>
+        <v>3.704943900197285</v>
       </c>
       <c r="I21">
-        <v>5.024248827600097</v>
+        <v>4.737161715428606</v>
       </c>
       <c r="J21">
-        <v>13.15270297761514</v>
+        <v>11.37468246292656</v>
       </c>
       <c r="K21">
-        <v>26.72412292980609</v>
+        <v>23.75427898500398</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>18.65344938683484</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.443213536191</v>
       </c>
       <c r="N21">
-        <v>8.71078559406866</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>8.789553460076199</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>25.52783566713276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>23.22834161939818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.15726981531428</v>
+        <v>10.88169322126449</v>
       </c>
       <c r="D22">
-        <v>3.507894093966184</v>
+        <v>3.817813652588887</v>
       </c>
       <c r="E22">
-        <v>15.15890020411056</v>
+        <v>14.07210353018145</v>
       </c>
       <c r="F22">
-        <v>33.91363167776785</v>
+        <v>30.87028885396989</v>
       </c>
       <c r="G22">
-        <v>50.02178841967459</v>
+        <v>49.16402963285064</v>
       </c>
       <c r="H22">
-        <v>4.1515817873957</v>
+        <v>3.868264705892652</v>
       </c>
       <c r="I22">
-        <v>5.192346011402122</v>
+        <v>4.871302049045545</v>
       </c>
       <c r="J22">
-        <v>13.48492068874799</v>
+        <v>10.80675988391459</v>
       </c>
       <c r="K22">
-        <v>27.51884728107991</v>
+        <v>24.24165497867171</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>18.79309099234957</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.07361672691257</v>
       </c>
       <c r="N22">
-        <v>8.890336984964362</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>8.963571072876547</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>26.31387232908524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>23.7071400233392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.01529706160542</v>
+        <v>10.77387428422192</v>
       </c>
       <c r="D23">
-        <v>3.4832060341922</v>
+        <v>3.76875035229275</v>
       </c>
       <c r="E23">
-        <v>14.97055273994324</v>
+        <v>13.90663924803168</v>
       </c>
       <c r="F23">
-        <v>33.36377163163137</v>
+        <v>30.54168368985517</v>
       </c>
       <c r="G23">
-        <v>49.16898920363079</v>
+        <v>47.50624942617951</v>
       </c>
       <c r="H23">
-        <v>4.051184603737663</v>
+        <v>3.783971845851279</v>
       </c>
       <c r="I23">
-        <v>5.102793144556233</v>
+        <v>4.799571634074116</v>
       </c>
       <c r="J23">
-        <v>13.31914971272037</v>
+        <v>11.25049408762373</v>
       </c>
       <c r="K23">
-        <v>27.12995664386126</v>
+        <v>24.03970584863157</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.75985084688445</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.78342451831007</v>
       </c>
       <c r="N23">
-        <v>8.793326513633541</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>8.870520685285047</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>25.92051045826375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>23.50757569696119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.41037691008539</v>
+        <v>10.34861311688143</v>
       </c>
       <c r="D24">
-        <v>3.389264649975918</v>
+        <v>3.601738620335881</v>
       </c>
       <c r="E24">
-        <v>14.21458880699718</v>
+        <v>13.25409294588915</v>
       </c>
       <c r="F24">
-        <v>31.16437828527396</v>
+        <v>29.00103184435151</v>
       </c>
       <c r="G24">
-        <v>45.73427140976403</v>
+        <v>42.12522706320191</v>
       </c>
       <c r="H24">
-        <v>3.660016216303418</v>
+        <v>3.45012143596624</v>
       </c>
       <c r="I24">
-        <v>4.757012695645354</v>
+        <v>4.519293210957597</v>
       </c>
       <c r="J24">
-        <v>12.6592616505287</v>
+        <v>12.20336277096274</v>
       </c>
       <c r="K24">
-        <v>25.55491869254979</v>
+        <v>23.05029504959944</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.48185463051067</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.49354256080396</v>
       </c>
       <c r="N24">
-        <v>8.419556487898069</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>8.506164540651561</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>24.34438004715055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>22.50684691339463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.71558265857463</v>
+        <v>9.916279153471695</v>
       </c>
       <c r="D25">
-        <v>3.281810258083469</v>
+        <v>3.446528841424051</v>
       </c>
       <c r="E25">
-        <v>13.3500020236864</v>
+        <v>12.52807154898515</v>
       </c>
       <c r="F25">
-        <v>28.64007332920727</v>
+        <v>26.80890312615267</v>
       </c>
       <c r="G25">
-        <v>41.75992509299186</v>
+        <v>38.38987764684313</v>
       </c>
       <c r="H25">
-        <v>3.219867225387378</v>
+        <v>3.060672677133254</v>
       </c>
       <c r="I25">
-        <v>4.369544533349201</v>
+        <v>4.191267009202408</v>
       </c>
       <c r="J25">
-        <v>11.91877612904002</v>
+        <v>11.71850310468733</v>
       </c>
       <c r="K25">
-        <v>23.75486444306102</v>
+        <v>21.62664154253795</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.93997614491936</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.79315550227074</v>
       </c>
       <c r="N25">
-        <v>7.998072103793591</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>8.08201757090432</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
-        <v>22.54561121036106</v>
+      <c r="S25">
+        <v>20.99883112718284</v>
       </c>
     </row>
   </sheetData>
